--- a/PokemonApp.Window/WindowTypeInfo.xlsx
+++ b/PokemonApp.Window/WindowTypeInfo.xlsx
@@ -94,11 +94,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JsonSerchView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WildArea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JsonSerchBaseView</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -451,7 +451,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -496,7 +496,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -524,7 +524,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/PokemonApp.Window/WindowTypeInfo.xlsx
+++ b/PokemonApp.Window/WindowTypeInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>PropertyName</t>
     <phoneticPr fontId="1"/>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>JsonSerchBaseView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SettingsView</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -448,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,6 +542,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
